--- a/受控文件/需求优先级/用户代表打分/SRA2021-G04-需求优先级管理员用户代表打分.xlsx
+++ b/受控文件/需求优先级/用户代表打分/SRA2021-G04-需求优先级管理员用户代表打分.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\14768\Documents\大三下学期\软件需求\小组作业\需求优先级\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\14768\Documents\大三下学期\软件需求\小组作业\需求优先级\用户代表打分\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B8B3D6-9E65-419E-A2A9-59BDAA290B4D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11DE8D6E-E0EE-40F9-A099-13DCA96EA968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="46">
   <si>
     <t>用户类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -195,6 +195,10 @@
   </si>
   <si>
     <t>5代表影响有点重要，6代表影响较为重要，7代表影响重要，8代表影响十分重要，9代表影响超级重要。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -529,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -540,17 +544,17 @@
     <col min="2" max="2" width="25.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.649999999999999" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" ht="17.649999999999999" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.649999999999999" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:5" ht="17.649999999999999" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -563,309 +567,540 @@
       <c r="D3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C4">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>4</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>4</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C12">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>4</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C13">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>4</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C14">
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>4</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>4</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C16">
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>4</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>4</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C18">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>4</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C19">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>4</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C20">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>4</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C21">
+        <v>7</v>
+      </c>
+      <c r="D21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>4</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C22">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>4</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C23">
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>4</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C24">
+        <v>7</v>
+      </c>
+      <c r="D24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>4</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C25">
+        <v>6</v>
+      </c>
+      <c r="D25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>4</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C26">
+        <v>7</v>
+      </c>
+      <c r="D26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>4</v>
       </c>
       <c r="B27" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C27">
+        <v>6</v>
+      </c>
+      <c r="D27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>4</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C28">
+        <v>6</v>
+      </c>
+      <c r="D28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>4</v>
       </c>
       <c r="B29" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C29">
+        <v>7</v>
+      </c>
+      <c r="D29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>4</v>
       </c>
       <c r="B30" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C30">
+        <v>6</v>
+      </c>
+      <c r="D30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>4</v>
       </c>
       <c r="B31" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C31">
+        <v>7</v>
+      </c>
+      <c r="D31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>4</v>
       </c>
       <c r="B32" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C32">
+        <v>6</v>
+      </c>
+      <c r="D32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>4</v>
       </c>
       <c r="B33" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C33">
+        <v>6</v>
+      </c>
+      <c r="D33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>4</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C34">
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>4</v>
       </c>
       <c r="B35" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C35">
+        <v>8</v>
+      </c>
+      <c r="D35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>4</v>
       </c>
       <c r="B36" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C36">
+        <v>6</v>
+      </c>
+      <c r="D36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>4</v>
       </c>
       <c r="B37" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C37">
+        <v>6</v>
+      </c>
+      <c r="D37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>4</v>
       </c>
       <c r="B38" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C38">
+        <v>6</v>
+      </c>
+      <c r="D38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>4</v>
       </c>
       <c r="B39" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C39">
+        <v>7</v>
+      </c>
+      <c r="D39">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>4</v>
       </c>
       <c r="B40" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C40">
+        <v>7</v>
+      </c>
+      <c r="D40">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>4</v>
       </c>
       <c r="B41" t="s">
         <v>42</v>
+      </c>
+      <c r="C41">
+        <v>5</v>
+      </c>
+      <c r="D41">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/受控文件/需求优先级/用户代表打分/SRA2021-G04-需求优先级管理员用户代表打分.xlsx
+++ b/受控文件/需求优先级/用户代表打分/SRA2021-G04-需求优先级管理员用户代表打分.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\14768\Documents\大三下学期\软件需求\小组作业\需求优先级\用户代表打分\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11DE8D6E-E0EE-40F9-A099-13DCA96EA968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F6716C-DD4F-411E-8BA6-274ECAA6AD23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="285" yWindow="1073" windowWidth="22215" windowHeight="10522" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="52">
   <si>
     <t>用户类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -199,6 +199,30 @@
   </si>
   <si>
     <t>价值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员查看已有标签列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员查看申请标签列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员搜索标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员审核申请标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员添加标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员删除标签</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -206,7 +230,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,13 +253,26 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -247,15 +284,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="着色 2" xfId="1" builtinId="33"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -533,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1103,8 +1145,93 @@
         <v>5</v>
       </c>
     </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="2">
+        <v>6</v>
+      </c>
+      <c r="D42" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="2">
+        <v>6</v>
+      </c>
+      <c r="D43" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A44" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="2">
+        <v>5</v>
+      </c>
+      <c r="D44" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A45" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" s="2">
+        <v>6</v>
+      </c>
+      <c r="D45" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A46" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" s="2">
+        <v>7</v>
+      </c>
+      <c r="D46" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A47" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="2">
+        <v>7</v>
+      </c>
+      <c r="D47" s="2">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>